--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -552,20 +552,20 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,11 +839,11 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">OFFENDER_IEP_LEVELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFENDER_VISIT_VISITORS</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRISONMENT_STATUSES</t>
@@ -551,8 +554,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +568,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,7 +806,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>9</v>
       </c>
@@ -817,7 +820,9 @@
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
@@ -826,14 +831,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -844,12 +849,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -860,12 +865,12 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -876,12 +881,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -892,12 +897,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -908,12 +913,12 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -924,12 +929,12 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -940,12 +945,12 @@
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -956,12 +961,12 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -972,12 +977,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -988,12 +993,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1004,12 +1009,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1020,12 +1025,12 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1036,12 +1041,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1052,12 +1057,12 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1068,12 +1073,12 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1084,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1098,7 +1103,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1112,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1126,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1140,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1154,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mick/dev/noms-digital/elite2-api/mobile-web/src/main/resources/db/migration/nomis/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20000" windowHeight="12120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,307 +30,307 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
-  <si>
-    <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t>NOMIS Database Tables - Level Hierarchy</t>
   </si>
   <si>
     <t xml:space="preserve">Key:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Populated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholder only (no data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOUNT_CODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCY_LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCY_INCIDENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCY_INCIDENT_PARTIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCY_INCIDENT_CHARGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_COURSE_ATTENDENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_OIC_SANCTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDRESSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCY_INTERNAL_LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COURSE_SCHEDULES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_CHARGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_EXCLUDE_ACTS_SCHDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_SENTENCE_ADJUSTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE_CODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASELOAD_AGENCY_LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_ALERTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IND_SCHEDULES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_SENTENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_SENTENCE_TERMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSESSMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAFF_MEMBERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COURSE_ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_ASSESSMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_PROGRAM_PROFILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIC_HEARING_RESULTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASELOADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEP_LEVELS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_CASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIC_HEARINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTACT_PERSON_TYPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_BOOKINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_CONTACT_PERSONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORPORATES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IDENTIFIERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_EXTERNAL_MOVEMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER_CASELOAD_ROLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_PATCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_TRUST_ACCOUNTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IDENTIFYING_MARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT_LOC_USAGE_LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO_CODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAFF_MEMBER_ROLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IEP_LEVELS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPRISONMENT_STATUSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAFF_USER_ACCOUNTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IMAGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNAL_SCHEDULE_REASONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_IMPRISON_STATUSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNET_ADDRESSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_KEY_DATE_ADJUSTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVEMENT_REASONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_KEY_WORKERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENCE_RESULT_CODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_MOVEMENT_APPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_PHYSICAL_ATTRIBUTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIC_OFFENCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_PRG_OBLIGATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMS_DELETED_ROWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_PROFILE_DETAILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMS_ROLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_RELEASE_DETAILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_SENT_CALCULATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_SUB_ACCOUNTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROFILE_CODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROFILE_TYPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_VISITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAM_SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER_ACCESSIBLE_CASELOADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE_DOMAINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENDER_CASE_NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENTENCE_CALC_TYPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNAL_LOCATION_USAGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYSTEM_PROFILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG_ERROR_LOGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG_IMAGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUST_AUDITS_TMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKS</t>
+    <t>Populated</t>
+  </si>
+  <si>
+    <t>Placeholder only (no data)</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>ACCOUNT_CODES</t>
+  </si>
+  <si>
+    <t>AGENCY_LOCATIONS</t>
+  </si>
+  <si>
+    <t>AGENCY_INCIDENTS</t>
+  </si>
+  <si>
+    <t>AGENCY_INCIDENT_PARTIES</t>
+  </si>
+  <si>
+    <t>AGENCY_INCIDENT_CHARGES</t>
+  </si>
+  <si>
+    <t>OFFENDER_COURSE_ATTENDENCES</t>
+  </si>
+  <si>
+    <t>OFFENDER_OIC_SANCTIONS</t>
+  </si>
+  <si>
+    <t>ADDRESSES</t>
+  </si>
+  <si>
+    <t>OFFENCES</t>
+  </si>
+  <si>
+    <t>AGENCY_INTERNAL_LOCATIONS</t>
+  </si>
+  <si>
+    <t>COURSE_SCHEDULES</t>
+  </si>
+  <si>
+    <t>OFFENDER_CHARGES</t>
+  </si>
+  <si>
+    <t>OFFENDER_EXCLUDE_ACTS_SCHDS</t>
+  </si>
+  <si>
+    <t>OFFENDER_SENTENCE_ADJUSTS</t>
+  </si>
+  <si>
+    <t>AREAS</t>
+  </si>
+  <si>
+    <t>REFERENCE_CODES</t>
+  </si>
+  <si>
+    <t>CASELOAD_AGENCY_LOCATIONS</t>
+  </si>
+  <si>
+    <t>OFFENDER_ALERTS</t>
+  </si>
+  <si>
+    <t>OFFENDER_IND_SCHEDULES</t>
+  </si>
+  <si>
+    <t>OFFENDER_SENTENCES</t>
+  </si>
+  <si>
+    <t>OFFENDER_SENTENCE_TERMS</t>
+  </si>
+  <si>
+    <t>ASSESSMENTS</t>
+  </si>
+  <si>
+    <t>STAFF_MEMBERS</t>
+  </si>
+  <si>
+    <t>COURSE_ACTIVITIES</t>
+  </si>
+  <si>
+    <t>OFFENDER_ASSESSMENTS</t>
+  </si>
+  <si>
+    <t>OFFENDER_PROGRAM_PROFILES</t>
+  </si>
+  <si>
+    <t>OIC_HEARING_RESULTS</t>
+  </si>
+  <si>
+    <t>CASELOADS</t>
+  </si>
+  <si>
+    <t>IEP_LEVELS</t>
+  </si>
+  <si>
+    <t>OFFENDER_CASES</t>
+  </si>
+  <si>
+    <t>OIC_HEARINGS</t>
+  </si>
+  <si>
+    <t>CONTACT_PERSON_TYPES</t>
+  </si>
+  <si>
+    <t>OFFENDER_BOOKINGS</t>
+  </si>
+  <si>
+    <t>OFFENDER_CONTACT_PERSONS</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>CORPORATES</t>
+  </si>
+  <si>
+    <t>OFFENDER_IDENTIFIERS</t>
+  </si>
+  <si>
+    <t>OFFENDER_EXTERNAL_MOVEMENTS</t>
+  </si>
+  <si>
+    <t>USER_CASELOAD_ROLES</t>
+  </si>
+  <si>
+    <t>DB_PATCHES</t>
+  </si>
+  <si>
+    <t>OFFENDER_TRUST_ACCOUNTS</t>
+  </si>
+  <si>
+    <t>OFFENDER_IDENTIFYING_MARKS</t>
+  </si>
+  <si>
+    <t>INT_LOC_USAGE_LOCATIONS</t>
+  </si>
+  <si>
+    <t>HO_CODES</t>
+  </si>
+  <si>
+    <t>STAFF_MEMBER_ROLES</t>
+  </si>
+  <si>
+    <t>OFFENDER_IEP_LEVELS</t>
+  </si>
+  <si>
+    <t>IMPRISONMENT_STATUSES</t>
+  </si>
+  <si>
+    <t>STAFF_USER_ACCOUNTS</t>
+  </si>
+  <si>
+    <t>OFFENDER_IMAGES</t>
+  </si>
+  <si>
+    <t>INTERNAL_SCHEDULE_REASONS</t>
+  </si>
+  <si>
+    <t>OFFENDER_IMPRISON_STATUSES</t>
+  </si>
+  <si>
+    <t>INTERNET_ADDRESSES</t>
+  </si>
+  <si>
+    <t>OFFENDER_KEY_DATE_ADJUSTS</t>
+  </si>
+  <si>
+    <t>MOVEMENT_REASONS</t>
+  </si>
+  <si>
+    <t>OFFENDER_KEY_WORKERS</t>
+  </si>
+  <si>
+    <t>OFFENCE_RESULT_CODES</t>
+  </si>
+  <si>
+    <t>OFFENDER_MOVEMENT_APPS</t>
+  </si>
+  <si>
+    <t>OFFENDERS</t>
+  </si>
+  <si>
+    <t>OFFENDER_PHYSICAL_ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>OIC_OFFENCES</t>
+  </si>
+  <si>
+    <t>OFFENDER_PRG_OBLIGATIONS</t>
+  </si>
+  <si>
+    <t>OMS_DELETED_ROWS</t>
+  </si>
+  <si>
+    <t>OFFENDER_PROFILE_DETAILS</t>
+  </si>
+  <si>
+    <t>OMS_ROLES</t>
+  </si>
+  <si>
+    <t>OFFENDER_RELEASE_DETAILS</t>
+  </si>
+  <si>
+    <t>PERSONS</t>
+  </si>
+  <si>
+    <t>OFFENDER_SENT_CALCULATIONS</t>
+  </si>
+  <si>
+    <t>PHONES</t>
+  </si>
+  <si>
+    <t>OFFENDER_SUB_ACCOUNTS</t>
+  </si>
+  <si>
+    <t>PROFILE_CODES</t>
+  </si>
+  <si>
+    <t>OFFENDER_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>PROFILE_TYPES</t>
+  </si>
+  <si>
+    <t>OFFENDER_VISITS</t>
+  </si>
+  <si>
+    <t>PROGRAM_SERVICES</t>
+  </si>
+  <si>
+    <t>USER_ACCESSIBLE_CASELOADS</t>
+  </si>
+  <si>
+    <t>REFERENCE_DOMAINS</t>
+  </si>
+  <si>
+    <t>OFFENDER_CASE_NOTES</t>
+  </si>
+  <si>
+    <t>SENTENCE_CALC_TYPES</t>
+  </si>
+  <si>
+    <t>INTERNAL_LOCATION_USAGES</t>
+  </si>
+  <si>
+    <t>STATUTES</t>
+  </si>
+  <si>
+    <t>SYSTEM_PROFILES</t>
+  </si>
+  <si>
+    <t>TAG_ERROR_LOGS</t>
+  </si>
+  <si>
+    <t>TAG_IMAGES</t>
+  </si>
+  <si>
+    <t>TRUST_AUDITS_TMP</t>
+  </si>
+  <si>
+    <t>WORKS</t>
+  </si>
+  <si>
+    <t>PERSON_IDENTIFIERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -329,22 +339,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -352,12 +347,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -387,100 +388,63 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -539,36 +503,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.48"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +815,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,13 +824,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -621,8 +856,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -647,8 +882,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -673,8 +908,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -699,8 +934,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -723,14 +958,16 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
@@ -743,8 +980,8 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -763,8 +1000,8 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -783,8 +1020,8 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -803,8 +1040,8 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -821,8 +1058,8 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -839,8 +1076,8 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -855,8 +1092,8 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -871,8 +1108,8 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -887,8 +1124,8 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -903,8 +1140,8 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -919,8 +1156,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -935,8 +1172,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -951,8 +1188,8 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -967,8 +1204,8 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -983,8 +1220,8 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -999,8 +1236,8 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1015,8 +1252,8 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1031,8 +1268,8 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1047,8 +1284,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1063,8 +1300,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1079,8 +1316,8 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1093,8 +1330,8 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -1107,8 +1344,8 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -1121,8 +1358,8 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1135,8 +1372,8 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -1149,8 +1386,8 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1167,12 +1404,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">INTERNAL_SCHEDULE_REASONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_LOCATION_ROLES</t>
   </si>
   <si>
     <t xml:space="preserve">OFFENDER_IMPRISON_STATUSES</t>
@@ -554,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,9 +855,11 @@
         <v>62</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -865,12 +870,12 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -881,12 +886,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -897,12 +902,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -913,12 +918,12 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -929,12 +934,12 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -945,12 +950,12 @@
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -961,12 +966,12 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -977,12 +982,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -993,12 +998,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1009,12 +1014,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1025,12 +1030,12 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1041,12 +1046,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1057,12 +1062,12 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1073,12 +1078,12 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1089,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1103,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1117,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1131,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1145,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1159,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">OIC_HEARINGS</t>
   </si>
   <si>
+    <t xml:space="preserve">OFFENDER_PRG_PRF_PAY_BANDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTACT_PERSON_TYPES</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">STATUTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURSE_ACTIVITY_PAY_RATES</t>
   </si>
   <si>
     <t xml:space="preserve">SYSTEM_PROFILES</t>
@@ -564,14 +570,14 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
@@ -735,7 +741,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>5</v>
       </c>
@@ -752,7 +758,9 @@
       <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,17 +768,17 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -780,17 +788,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -800,17 +808,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -820,17 +828,17 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -840,14 +848,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -858,14 +866,14 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -876,14 +884,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -894,14 +902,14 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -912,12 +920,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -928,12 +936,12 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -944,12 +952,12 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -960,12 +968,12 @@
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -976,12 +984,12 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -992,12 +1000,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1008,12 +1016,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1024,12 +1032,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1040,12 +1048,12 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1056,12 +1064,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1072,12 +1080,12 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1088,37 +1096,39 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1132,7 +1142,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1146,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1160,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1174,7 +1184,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">OFFENDER_IMAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURT_EVENTS</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNAL_SCHEDULE_REASONS</t>
@@ -569,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,7 +846,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>10</v>
       </c>
@@ -857,7 +860,9 @@
       <c r="E16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
@@ -866,14 +871,14 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -884,14 +889,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -902,14 +907,14 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -920,12 +925,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -936,12 +941,12 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -952,12 +957,12 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -968,12 +973,12 @@
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -984,12 +989,12 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1000,12 +1005,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1016,12 +1021,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1032,12 +1037,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1048,12 +1053,12 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1064,12 +1069,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1080,12 +1085,12 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1096,12 +1101,12 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1112,12 +1117,12 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1128,7 +1133,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1142,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1156,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1170,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1184,7 +1189,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">SYSTEM_PROFILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVING_UNITS_MV</t>
   </si>
   <si>
     <t xml:space="preserve">TAG_ERROR_LOGS</t>
@@ -572,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,17 +1140,19 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1161,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1175,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1189,7 +1194,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>

--- a/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
+++ b/mobile-web/src/main/resources/db/migration/nomis/data/nomis_data_hierarchy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">NOMIS Database Tables - Level Hierarchy</t>
   </si>
@@ -328,7 +328,13 @@
     <t xml:space="preserve">TAG_ERROR_LOGS</t>
   </si>
   <si>
+    <t xml:space="preserve">OFFENDER_HEALTH_PROBLEMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAG_IMAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFENDER_LANGUAGES</t>
   </si>
   <si>
     <t xml:space="preserve">TRUST_AUDITS_TMP</t>
@@ -575,8 +581,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1156,21 +1162,25 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1180,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1194,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
